--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Sema3f-Nrp2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Sema3f-Nrp2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.40301853451509</v>
+        <v>19.44654466666667</v>
       </c>
       <c r="H2">
-        <v>4.40301853451509</v>
+        <v>58.339634</v>
       </c>
       <c r="I2">
-        <v>0.4792430502851788</v>
+        <v>0.7934109702307454</v>
       </c>
       <c r="J2">
-        <v>0.4792430502851788</v>
+        <v>0.7934109702307454</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.9735047618377</v>
+        <v>34.52052333333333</v>
       </c>
       <c r="N2">
-        <v>23.9735047618377</v>
+        <v>103.56157</v>
       </c>
       <c r="O2">
-        <v>0.7018082539430963</v>
+        <v>0.7684334662422598</v>
       </c>
       <c r="P2">
-        <v>0.7018082539430963</v>
+        <v>0.7684334662422598</v>
       </c>
       <c r="Q2">
-        <v>105.5557858036572</v>
+        <v>671.3048989183756</v>
       </c>
       <c r="R2">
-        <v>105.5557858036572</v>
+        <v>6041.74409026538</v>
       </c>
       <c r="S2">
-        <v>0.3363367283350049</v>
+        <v>0.6096835420090461</v>
       </c>
       <c r="T2">
-        <v>0.3363367283350049</v>
+        <v>0.6096835420090461</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.40301853451509</v>
+        <v>19.44654466666667</v>
       </c>
       <c r="H3">
-        <v>4.40301853451509</v>
+        <v>58.339634</v>
       </c>
       <c r="I3">
-        <v>0.4792430502851788</v>
+        <v>0.7934109702307454</v>
       </c>
       <c r="J3">
-        <v>0.4792430502851788</v>
+        <v>0.7934109702307454</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.30764142092037</v>
+        <v>5.347618333333333</v>
       </c>
       <c r="N3">
-        <v>5.30764142092037</v>
+        <v>16.042855</v>
       </c>
       <c r="O3">
-        <v>0.1553776385713009</v>
+        <v>0.1190390091234806</v>
       </c>
       <c r="P3">
-        <v>0.1553776385713009</v>
+        <v>0.1190390091234805</v>
       </c>
       <c r="Q3">
-        <v>23.3696435508724</v>
+        <v>103.9926987794522</v>
       </c>
       <c r="R3">
-        <v>23.3696435508724</v>
+        <v>935.93428901507</v>
       </c>
       <c r="S3">
-        <v>0.07446365345501831</v>
+        <v>0.09444685572396726</v>
       </c>
       <c r="T3">
-        <v>0.07446365345501831</v>
+        <v>0.09444685572396724</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.40301853451509</v>
+        <v>19.44654466666667</v>
       </c>
       <c r="H4">
-        <v>4.40301853451509</v>
+        <v>58.339634</v>
       </c>
       <c r="I4">
-        <v>0.4792430502851788</v>
+        <v>0.7934109702307454</v>
       </c>
       <c r="J4">
-        <v>0.4792430502851788</v>
+        <v>0.7934109702307454</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.87847594642468</v>
+        <v>5.055101333333334</v>
       </c>
       <c r="N4">
-        <v>4.87847594642468</v>
+        <v>15.165304</v>
       </c>
       <c r="O4">
-        <v>0.1428141074856027</v>
+        <v>0.1125275246342597</v>
       </c>
       <c r="P4">
-        <v>0.1428141074856027</v>
+        <v>0.1125275246342597</v>
       </c>
       <c r="Q4">
-        <v>21.48002001229391</v>
+        <v>98.30425387319291</v>
       </c>
       <c r="R4">
-        <v>21.48002001229391</v>
+        <v>884.7382848587361</v>
       </c>
       <c r="S4">
-        <v>0.06844266849515565</v>
+        <v>0.08928057249773209</v>
       </c>
       <c r="T4">
-        <v>0.06844266849515565</v>
+        <v>0.08928057249773208</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.46098056857124</v>
+        <v>2.524415666666667</v>
       </c>
       <c r="H5">
-        <v>2.46098056857124</v>
+        <v>7.573247</v>
       </c>
       <c r="I5">
-        <v>0.2678634725539543</v>
+        <v>0.1029951139231878</v>
       </c>
       <c r="J5">
-        <v>0.2678634725539543</v>
+        <v>0.1029951139231878</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.9735047618377</v>
+        <v>34.52052333333333</v>
       </c>
       <c r="N5">
-        <v>23.9735047618377</v>
+        <v>103.56157</v>
       </c>
       <c r="O5">
-        <v>0.7018082539430963</v>
+        <v>0.7684334662422598</v>
       </c>
       <c r="P5">
-        <v>0.7018082539430963</v>
+        <v>0.7684334662422598</v>
       </c>
       <c r="Q5">
-        <v>58.99832937943267</v>
+        <v>87.14414992419887</v>
       </c>
       <c r="R5">
-        <v>58.99832937943267</v>
+        <v>784.2973493177899</v>
       </c>
       <c r="S5">
-        <v>0.1879887959682252</v>
+        <v>0.07914489239801165</v>
       </c>
       <c r="T5">
-        <v>0.1879887959682252</v>
+        <v>0.07914489239801165</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.46098056857124</v>
+        <v>2.524415666666667</v>
       </c>
       <c r="H6">
-        <v>2.46098056857124</v>
+        <v>7.573247</v>
       </c>
       <c r="I6">
-        <v>0.2678634725539543</v>
+        <v>0.1029951139231878</v>
       </c>
       <c r="J6">
-        <v>0.2678634725539543</v>
+        <v>0.1029951139231878</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.30764142092037</v>
+        <v>5.347618333333333</v>
       </c>
       <c r="N6">
-        <v>5.30764142092037</v>
+        <v>16.042855</v>
       </c>
       <c r="O6">
-        <v>0.1553776385713009</v>
+        <v>0.1190390091234806</v>
       </c>
       <c r="P6">
-        <v>0.1553776385713009</v>
+        <v>0.1190390091234805</v>
       </c>
       <c r="Q6">
-        <v>13.06200240182888</v>
+        <v>13.49961150002055</v>
       </c>
       <c r="R6">
-        <v>13.06200240182888</v>
+        <v>121.496503500185</v>
       </c>
       <c r="S6">
-        <v>0.04161999382494189</v>
+        <v>0.01226043630597627</v>
       </c>
       <c r="T6">
-        <v>0.04161999382494189</v>
+        <v>0.01226043630597627</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.46098056857124</v>
+        <v>2.524415666666667</v>
       </c>
       <c r="H7">
-        <v>2.46098056857124</v>
+        <v>7.573247</v>
       </c>
       <c r="I7">
-        <v>0.2678634725539543</v>
+        <v>0.1029951139231878</v>
       </c>
       <c r="J7">
-        <v>0.2678634725539543</v>
+        <v>0.1029951139231878</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.87847594642468</v>
+        <v>5.055101333333334</v>
       </c>
       <c r="N7">
-        <v>4.87847594642468</v>
+        <v>15.165304</v>
       </c>
       <c r="O7">
-        <v>0.1428141074856027</v>
+        <v>0.1125275246342597</v>
       </c>
       <c r="P7">
-        <v>0.1428141074856027</v>
+        <v>0.1125275246342597</v>
       </c>
       <c r="Q7">
-        <v>12.00583450839333</v>
+        <v>12.76117700245422</v>
       </c>
       <c r="R7">
-        <v>12.00583450839333</v>
+        <v>114.850593022088</v>
       </c>
       <c r="S7">
-        <v>0.03825468276078722</v>
+        <v>0.0115897852191999</v>
       </c>
       <c r="T7">
-        <v>0.03825468276078722</v>
+        <v>0.0115897852191999</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.32344457897651</v>
+        <v>2.539092333333333</v>
       </c>
       <c r="H8">
-        <v>2.32344457897651</v>
+        <v>7.617277</v>
       </c>
       <c r="I8">
-        <v>0.252893477160867</v>
+        <v>0.1035939158460669</v>
       </c>
       <c r="J8">
-        <v>0.252893477160867</v>
+        <v>0.1035939158460669</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.9735047618377</v>
+        <v>34.52052333333333</v>
       </c>
       <c r="N8">
-        <v>23.9735047618377</v>
+        <v>103.56157</v>
       </c>
       <c r="O8">
-        <v>0.7018082539430963</v>
+        <v>0.7684334662422598</v>
       </c>
       <c r="P8">
-        <v>0.7018082539430963</v>
+        <v>0.7684334662422598</v>
       </c>
       <c r="Q8">
-        <v>55.70110967795935</v>
+        <v>87.6507961383211</v>
       </c>
       <c r="R8">
-        <v>55.70110967795935</v>
+        <v>788.8571652448899</v>
       </c>
       <c r="S8">
-        <v>0.1774827296398664</v>
+        <v>0.07960503183520212</v>
       </c>
       <c r="T8">
-        <v>0.1774827296398664</v>
+        <v>0.07960503183520212</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.32344457897651</v>
+        <v>2.539092333333333</v>
       </c>
       <c r="H9">
-        <v>2.32344457897651</v>
+        <v>7.617277</v>
       </c>
       <c r="I9">
-        <v>0.252893477160867</v>
+        <v>0.1035939158460669</v>
       </c>
       <c r="J9">
-        <v>0.252893477160867</v>
+        <v>0.1035939158460669</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.30764142092037</v>
+        <v>5.347618333333333</v>
       </c>
       <c r="N9">
-        <v>5.30764142092037</v>
+        <v>16.042855</v>
       </c>
       <c r="O9">
-        <v>0.1553776385713009</v>
+        <v>0.1190390091234806</v>
       </c>
       <c r="P9">
-        <v>0.1553776385713009</v>
+        <v>0.1190390091234805</v>
       </c>
       <c r="Q9">
-        <v>12.33201068658862</v>
+        <v>13.57809671175944</v>
       </c>
       <c r="R9">
-        <v>12.33201068658862</v>
+        <v>122.202870405835</v>
       </c>
       <c r="S9">
-        <v>0.03929399129134073</v>
+        <v>0.01233171709353703</v>
       </c>
       <c r="T9">
-        <v>0.03929399129134073</v>
+        <v>0.01233171709353703</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.32344457897651</v>
+        <v>2.539092333333333</v>
       </c>
       <c r="H10">
-        <v>2.32344457897651</v>
+        <v>7.617277</v>
       </c>
       <c r="I10">
-        <v>0.252893477160867</v>
+        <v>0.1035939158460669</v>
       </c>
       <c r="J10">
-        <v>0.252893477160867</v>
+        <v>0.1035939158460669</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.87847594642468</v>
+        <v>5.055101333333334</v>
       </c>
       <c r="N10">
-        <v>4.87847594642468</v>
+        <v>15.165304</v>
       </c>
       <c r="O10">
-        <v>0.1428141074856027</v>
+        <v>0.1125275246342597</v>
       </c>
       <c r="P10">
-        <v>0.1428141074856027</v>
+        <v>0.1125275246342597</v>
       </c>
       <c r="Q10">
-        <v>11.33486849138772</v>
+        <v>12.83536903968978</v>
       </c>
       <c r="R10">
-        <v>11.33486849138772</v>
+        <v>115.518321357208</v>
       </c>
       <c r="S10">
-        <v>0.03611675622965988</v>
+        <v>0.01165716691732771</v>
       </c>
       <c r="T10">
-        <v>0.03611675622965988</v>
+        <v>0.01165716691732771</v>
       </c>
     </row>
   </sheetData>
